--- a/DATA_goal/Junction_Flooding_365.xlsx
+++ b/DATA_goal/Junction_Flooding_365.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>40751.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>40751.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.61</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.11</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.92</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.36</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.1</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.74</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.81</v>
+        <v>78.06</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.55</v>
+        <v>15.55</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.42</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.2</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.19</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.6</v>
+        <v>16.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>40751.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.78</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.46</v>
+        <v>24.56</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.1</v>
+        <v>20.96</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.91</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>3.29</v>
+        <v>32.85</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.9</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.34</v>
+        <v>13.36</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.04</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>12.97</v>
+        <v>129.75</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.51</v>
+        <v>25.12</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.82</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.93</v>
+        <v>9.33</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.33</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.98</v>
+        <v>29.83</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.47</v>
       </c>
       <c r="C5" s="4" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D5" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="E5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.15</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.88</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.61</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>55.46</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>11.69</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Y5" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>5.55</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.76</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.4</v>
+        <v>4.02</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.43</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_365.xlsx
+++ b/DATA_goal/Junction_Flooding_365.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.04861111111</v>
+        <v>45046.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.05555555555</v>
+        <v>45046.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.61</v>
+        <v>21.464</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.11</v>
+        <v>16.77</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.73</v>
+        <v>0.523</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.82</v>
+        <v>44.487</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.28</v>
+        <v>39.212</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.62</v>
+        <v>16.124</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.92</v>
+        <v>58.375</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.18</v>
+        <v>24.993</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.65</v>
+        <v>11.342</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.36</v>
+        <v>17.784</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.28</v>
+        <v>18.934</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.1</v>
+        <v>19.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.72</v>
+        <v>5.203</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.91</v>
+        <v>16.584</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.74</v>
+        <v>23.077</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.02</v>
+        <v>12.988</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.766</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.21</v>
+        <v>0.853</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.06</v>
+        <v>244.068</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.55</v>
+        <v>45.574</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.42</v>
+        <v>15.767</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.2</v>
+        <v>31.68</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.19</v>
+        <v>16.26</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.66</v>
+        <v>2.182</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.82</v>
+        <v>28.786</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.45</v>
+        <v>12.867</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.23</v>
+        <v>12.113</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.92</v>
+        <v>14.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.6</v>
+        <v>20.164</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.03</v>
+        <v>51.891</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.7</v>
+        <v>8.933999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.11</v>
+        <v>18.777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.0625</v>
+        <v>45046.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.78</v>
+        <v>11.269</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>8.879</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.67</v>
+        <v>0.218</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.56</v>
+        <v>23.081</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.96</v>
+        <v>20.659</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.85</v>
+        <v>36.871</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.64</v>
+        <v>12.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.13</v>
+        <v>5.958</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.029999999999999</v>
+        <v>9.398</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.06</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.92</v>
+        <v>10.476</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.86</v>
+        <v>2.722</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.51</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.36</v>
+        <v>12.01</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.04</v>
+        <v>6.677</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.502</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.75</v>
+        <v>124.062</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.12</v>
+        <v>23.906</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.49</v>
+        <v>8.282</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.82</v>
+        <v>16.761</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.33</v>
+        <v>8.528</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.12</v>
+        <v>17.047</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.29</v>
+        <v>6.631</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.61</v>
+        <v>6.358</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.33</v>
+        <v>7.41</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.58</v>
+        <v>10.633</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.83</v>
+        <v>32.981</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.56</v>
+        <v>4.723</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.17</v>
+        <v>9.766999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.06944444445</v>
+        <v>45046.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.47</v>
+        <v>6.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.82</v>
+        <v>5.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.12</v>
+        <v>13.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.67</v>
+        <v>12.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.15</v>
+        <v>5.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.88</v>
+        <v>23.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.18</v>
+        <v>7.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.81</v>
+        <v>3.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.04</v>
+        <v>5.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.61</v>
+        <v>6.1</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>72.62</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>14.52</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>5.07</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>55.46</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>11.69</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>3.95</v>
-      </c>
       <c r="W5" s="4" t="n">
-        <v>7.8</v>
+        <v>10.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.39</v>
+        <v>5.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.76</v>
+        <v>10.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.33</v>
+        <v>3.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.89</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.02</v>
+        <v>4.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.85</v>
+        <v>6.53</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.43</v>
+        <v>20.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.03</v>
+        <v>2.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.79000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.79</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.23</v>
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_365.xlsx
+++ b/DATA_goal/Junction_Flooding_365.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,31 +448,31 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45046.50694444445</v>
+        <v>40751.04861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.928</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.344</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.978</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>10.253</v>
+        <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.511</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.567</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.041</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.748</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.53</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.048</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>5.182</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.791</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.479</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>3.593</v>
+        <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.503</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.042</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.417</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>43.098</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>7.946</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>4.36</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.645</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.748</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.484</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.765</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.536</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>3.068</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.75</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>5.612</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.035</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.082</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.31</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45046.51388888889</v>
+        <v>40751.05555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>21.464</v>
+        <v>7.614</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.77</v>
+        <v>5.115</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.523</v>
+        <v>0.728</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>44.487</v>
+        <v>14.817</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>39.212</v>
+        <v>13.277</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>16.124</v>
+        <v>5.618</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>58.375</v>
+        <v>17.92</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>24.993</v>
+        <v>8.183</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>11.342</v>
+        <v>3.651</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.784</v>
+        <v>5.356</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>18.934</v>
+        <v>6.28</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>19.97</v>
+        <v>7.103</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.203</v>
+        <v>1.724</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>16.584</v>
+        <v>4.914</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>23.077</v>
+        <v>8.737</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>12.988</v>
+        <v>4.017</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.766</v>
+        <v>0.465</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.853</v>
+        <v>0.211</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>244.068</v>
+        <v>78.062</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>45.574</v>
+        <v>15.549</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>15.767</v>
+        <v>5.418</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>31.68</v>
+        <v>10.205</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>16.26</v>
+        <v>6.188</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.182</v>
+        <v>0.656</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>28.786</v>
+        <v>8.818</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>12.867</v>
+        <v>4.448</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.113</v>
+        <v>4.226</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.06</v>
+        <v>5.918</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.164</v>
+        <v>6.596</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>51.891</v>
+        <v>16.035</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>8.933999999999999</v>
+        <v>2.703</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>18.777</v>
+        <v>6.114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45046.52083333334</v>
+        <v>40751.0625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.269</v>
+        <v>11.783</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.879</v>
+        <v>8.461</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.218</v>
+        <v>0.669</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>23.081</v>
+        <v>24.559</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.659</v>
+        <v>20.956</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>9.051</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>32.855</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>13.643</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>6.126</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>9.032</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>10.061</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>10.917</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>8.510999999999999</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>13.359</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>7.035</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>129.746</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>25.122</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>8.488</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>16.817</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>9.33</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>1.133</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>16.116</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>7.288</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>6.612</v>
+      </c>
+      <c r="AC4" s="4" t="n">
         <v>8.332000000000001</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>36.871</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>12.981</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>5.958</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>9.398</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>10.476</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>2.722</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>8.664999999999999</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>6.677</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.502</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>124.062</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>23.906</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>8.282</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>16.761</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>8.528</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>17.047</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.631</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>6.358</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>7.41</v>
-      </c>
       <c r="AD4" s="4" t="n">
-        <v>10.633</v>
+        <v>10.577</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>32.981</v>
+        <v>29.831</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.723</v>
+        <v>4.563</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>9.766999999999999</v>
+        <v>10.166</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45046.52777777778</v>
+        <v>40751.06944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.89</v>
+        <v>5.468</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.49</v>
+        <v>3.817</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.376</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.93</v>
+        <v>11.121</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.68</v>
+        <v>9.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>5.01</v>
+        <v>4.147</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>23.39</v>
+        <v>18.878</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.85</v>
+        <v>6.177</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.64</v>
+        <v>2.814</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.78</v>
+        <v>4.036</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.1</v>
+        <v>4.611</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.4</v>
+        <v>5.072</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.66</v>
+        <v>1.309</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.27</v>
+        <v>3.736</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.26</v>
+        <v>6.307</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.99</v>
+        <v>3.096</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.286</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.153</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.62</v>
+        <v>55.46</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.52</v>
+        <v>11.686</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.07</v>
+        <v>3.945</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>10.28</v>
+        <v>7.797</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.21</v>
+        <v>4.394</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.509</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.54</v>
+        <v>8.760999999999999</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.97</v>
+        <v>3.333</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.89</v>
+        <v>3.09</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.54</v>
+        <v>4.018</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.53</v>
+        <v>4.847</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.77</v>
+        <v>17.431</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.91</v>
+        <v>2.032</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.91</v>
+        <v>4.594</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>40751.07637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>24.28</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.79000000000001</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.79</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>21.91</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.23</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_365.xlsx
+++ b/DATA_goal/Junction_Flooding_365.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,31 +448,31 @@
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
-    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
     <col width="8" customWidth="1" min="34" max="34"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>40751.04861111111</v>
+        <v>45046.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.411</v>
+        <v>4.928</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.834</v>
+        <v>5.344</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.687</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>5.978</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>10.253</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.421</v>
+        <v>2.511</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.343</v>
+        <v>8.567</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.587</v>
+        <v>4.041</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.088</v>
+        <v>1.748</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.625</v>
+        <v>4.53</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.867</v>
+        <v>5.048</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.386</v>
+        <v>5.182</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.791</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.262</v>
+        <v>3.479</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>3.593</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.896</v>
+        <v>1.503</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.601</v>
+        <v>1.042</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.104</v>
+        <v>0.417</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.507</v>
+        <v>43.098</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.768</v>
+        <v>7.946</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.777</v>
+        <v>4.36</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.652</v>
+        <v>6.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.949</v>
+        <v>2.748</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.176</v>
+        <v>0.484</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.915</v>
+        <v>2.765</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.546</v>
+        <v>1.536</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.916</v>
+        <v>3.068</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.093</v>
+        <v>2.75</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.911</v>
+        <v>5.612</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.891</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.078</v>
+        <v>5.035</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.877</v>
+        <v>2.082</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.065</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>40751.05555555555</v>
+        <v>45046.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.614</v>
+        <v>21.464</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.115</v>
+        <v>16.77</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.728</v>
+        <v>0.523</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.817</v>
+        <v>44.487</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.277</v>
+        <v>39.212</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.618</v>
+        <v>16.124</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.92</v>
+        <v>58.375</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.183</v>
+        <v>24.993</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.651</v>
+        <v>11.342</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.356</v>
+        <v>17.784</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.28</v>
+        <v>18.934</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.103</v>
+        <v>19.97</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.724</v>
+        <v>5.203</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.914</v>
+        <v>16.584</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.737</v>
+        <v>23.077</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.017</v>
+        <v>12.988</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.465</v>
+        <v>0.766</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.211</v>
+        <v>0.853</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.062</v>
+        <v>244.068</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.549</v>
+        <v>45.574</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.418</v>
+        <v>15.767</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.205</v>
+        <v>31.68</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>6.188</v>
+        <v>16.26</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.656</v>
+        <v>2.182</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.818</v>
+        <v>28.786</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.448</v>
+        <v>12.867</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.226</v>
+        <v>12.113</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.918</v>
+        <v>14.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.596</v>
+        <v>20.164</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.318</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.035</v>
+        <v>51.891</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.703</v>
+        <v>8.933999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.114</v>
+        <v>18.777</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>40751.0625</v>
+        <v>45046.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>11.783</v>
+        <v>11.269</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>8.461</v>
+        <v>8.879</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.669</v>
+        <v>0.218</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>24.559</v>
+        <v>23.081</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>20.956</v>
+        <v>20.659</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>9.051</v>
+        <v>8.332000000000001</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>32.855</v>
+        <v>36.871</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>13.643</v>
+        <v>12.981</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.126</v>
+        <v>5.958</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>9.032</v>
+        <v>9.398</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>10.061</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>10.917</v>
+        <v>10.476</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.856</v>
+        <v>2.722</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>8.510999999999999</v>
+        <v>8.664999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>13.359</v>
+        <v>12.01</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>7.035</v>
+        <v>6.677</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.398</v>
+        <v>0.502</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.337</v>
+        <v>0.5</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>129.746</v>
+        <v>124.062</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>25.122</v>
+        <v>23.906</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.488</v>
+        <v>8.282</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>16.817</v>
+        <v>16.761</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>9.33</v>
+        <v>8.528</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.133</v>
+        <v>1.14</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>16.116</v>
+        <v>17.047</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.288</v>
+        <v>6.631</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>6.612</v>
+        <v>6.358</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.332000000000001</v>
+        <v>7.41</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>10.577</v>
+        <v>10.633</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.793</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>29.831</v>
+        <v>32.981</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>4.563</v>
+        <v>4.723</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>10.166</v>
+        <v>9.766999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>40751.06944444445</v>
+        <v>45046.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>5.468</v>
+        <v>6.89</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.817</v>
+        <v>5.49</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.376</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>11.121</v>
+        <v>13.93</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>9.67</v>
+        <v>12.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.147</v>
+        <v>5.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.878</v>
+        <v>23.39</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>6.177</v>
+        <v>7.85</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.814</v>
+        <v>3.64</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.036</v>
+        <v>5.78</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>4.611</v>
+        <v>6.1</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.072</v>
+        <v>6.4</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.309</v>
+        <v>1.66</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.736</v>
+        <v>5.27</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>6.307</v>
+        <v>7.26</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.096</v>
+        <v>3.99</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.286</v>
+        <v>0.37</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.153</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>55.46</v>
+        <v>72.62</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>11.686</v>
+        <v>14.52</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.945</v>
+        <v>5.07</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>7.797</v>
+        <v>10.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>4.394</v>
+        <v>5.21</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.509</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.760999999999999</v>
+        <v>10.54</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.333</v>
+        <v>3.97</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.89</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.018</v>
+        <v>4.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>4.847</v>
+        <v>6.53</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.431</v>
+        <v>20.77</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.032</v>
+        <v>2.91</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>4.594</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>40751.07637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.28</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.79000000000001</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.79</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.23</v>
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>
